--- a/Messdaten.xlsx
+++ b/Messdaten.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetzl\Desktop\Studium\4.Semester\Sensoren und Aktoren\Clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HS\SEuAK\Labor\SeuAk-Waage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5968914F-7543-45F9-A2F1-BC07D4AE336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E1BD4-34BD-48A5-B492-C2AF91B9D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E9809BBF-413A-4777-B1C3-88D2F2F25298}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{E9809BBF-413A-4777-B1C3-88D2F2F25298}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -591,7 +588,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -970,8 +967,8 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9">
-        <f>_xlfn.STDEV.P(C5:C20)</f>
-        <v>0.14750926877657553</v>
+        <f>SQRT(C$23)</f>
+        <v>0.15234691770210954</v>
       </c>
       <c r="D24" s="10">
         <f>_xlfn.STDEV.P(D5:D20)</f>
